--- a/DOM_Banner/output/dept0713/Bhaskar Banerjee_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Bhaskar Banerjee_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Chemistry and Biochemistry, School of Basic Sciences and Research, Sharda University, Greater Noida, U.P. 201301, India; Department of Forensic Science, School of Allied Health Sciences, Sharda University, Greater Noida, U.P. 201301, India; Department of Chemistry and Biochemistry, School of Basic Sciences and Research, Sharda University, Greater Noida, U.P. 201301, India; Department of Chemistry and Biochemistry, School of Basic Sciences and Research, Sharda University, Greater Noida, U.P. 201301, India</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319593694</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Organochalcogen (Se/Te) substituted Schiff bases: Syntheses and applications</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Materials Today: Proceedings</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.matpr.2023.01.333</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.matpr.2023.01.333</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383420351</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Sa1936 MEASURING THE HYPERSPECTRAL AND AUTO-FLUORESCENT SIGNATURE OF ESOPHAGEAL CANCER FOR EVALUATING DIAGNOSTIC OPTICAL IMAGING BIOMARKERS USING EX-VIVO CLINICAL SPECIMENS.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Gastroenterology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(23)02133-9</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>de</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(23)02133-9</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,24 +626,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>The Univ. of Arizona (United States); Univ. of Cambridge (United Kingdom); Univ. of Cambridge (United Kingdom); Univ. of Cambridge (United Kingdom); Univ. of Cambridge (United Kingdom); The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona (United States); ; The Univ. of Arizona (United States)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4327565071</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Optical coherence elastography on clinical samples of gastric cancer shows promise for assessing alteration of mechanical properties with onset of disease (Conference Presentation)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-16</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -636,14 +651,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1117/12.2652958</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1117/12.2652958</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,76 +713,81 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380558352</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>PWR-Align: Leveraging Part-Whole Relationships for Part-wise Rigid Point
   Cloud Registration in Mixed Reality Applications</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-06-11</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>arXiv (Cornell University)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Cornell University</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2306.06717</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arxiv.2306.06717</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
